--- a/毕业论文/数据/半径.xlsx
+++ b/毕业论文/数据/半径.xlsx
@@ -9,16 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="10-30cm" sheetId="1" r:id="rId1"/>
     <sheet name="半径" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="new" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Absorption</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R(300ppm,60cm)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,9 +623,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1978,11 +1998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1810789952"/>
-        <c:axId val="-1810791584"/>
+        <c:axId val="-1793676576"/>
+        <c:axId val="-1793670592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1810789952"/>
+        <c:axId val="-1793676576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,12 +2059,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810791584"/>
+        <c:crossAx val="-1793670592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1810791584"/>
+        <c:axId val="-1793670592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810789952"/>
+        <c:crossAx val="-1793676576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2746,11 +2766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1706703024"/>
-        <c:axId val="-1706709008"/>
+        <c:axId val="-1793667328"/>
+        <c:axId val="-1560936768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1706703024"/>
+        <c:axId val="-1793667328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,12 +2827,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1706709008"/>
+        <c:crossAx val="-1560936768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1706709008"/>
+        <c:axId val="-1560936768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1706703024"/>
+        <c:crossAx val="-1793667328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3282,11 +3302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1706700304"/>
-        <c:axId val="-1706688336"/>
+        <c:axId val="-1560933504"/>
+        <c:axId val="-1560932960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1706700304"/>
+        <c:axId val="-1560933504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,12 +3363,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1706688336"/>
+        <c:crossAx val="-1560932960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1706688336"/>
+        <c:axId val="-1560932960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -3406,7 +3426,309 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1706700304"/>
+        <c:crossAx val="-1560933504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>new!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.464790894703256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.197186342054884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.394372684109769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.88733853924697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>new!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.460044480000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.535531300000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.109766610000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.918655270000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1791647328"/>
+        <c:axId val="-1791640800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1791647328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1791640800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1791640800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1791647328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3575,6 +3897,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4608,6 +4970,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5207,6 +6085,41 @@
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5494,7 +6407,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6078,7 +6991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -6686,7 +7599,8 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7107,7 +8021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:F5"/>
     </sheetView>
   </sheetViews>
@@ -7190,4 +8104,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <f>60/(2*PI()*A2/360)</f>
+        <v>25.464790894703256</v>
+      </c>
+      <c r="C2">
+        <v>36.201655270000003</v>
+      </c>
+      <c r="D2">
+        <f>C2+3.717</f>
+        <v>39.918655270000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>25.464790894703256</v>
+      </c>
+      <c r="J2" s="2">
+        <v>22.460044480000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">60/(2*PI()*A3/360)</f>
+        <v>38.197186342054884</v>
+      </c>
+      <c r="C3">
+        <v>20.140442610000001</v>
+      </c>
+      <c r="D3">
+        <f>C3+9.969324</f>
+        <v>30.109766610000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>38.197186342054884</v>
+      </c>
+      <c r="J3" s="2">
+        <v>27.535531300000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>76.394372684109769</v>
+      </c>
+      <c r="C4">
+        <v>30.1931273</v>
+      </c>
+      <c r="D4">
+        <f>C4-2.657596</f>
+        <v>27.535531300000002</v>
+      </c>
+      <c r="I4" s="2">
+        <v>76.394372684109769</v>
+      </c>
+      <c r="J4" s="2">
+        <v>32.109766610000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>171.88733853924697</v>
+      </c>
+      <c r="C5">
+        <v>26.459744480000001</v>
+      </c>
+      <c r="D5">
+        <f>C5-3.9997</f>
+        <v>22.460044480000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>171.88733853924697</v>
+      </c>
+      <c r="J5" s="2">
+        <v>39.918655270000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>